--- a/target/test-classes/com/E_banking/TestData/InputData.xlsx
+++ b/target/test-classes/com/E_banking/TestData/InputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e-banking\src\test\java\com\E_banking\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3490166-68BC-4C35-8C9E-85998E689DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABDF1F9-9369-4BA5-B326-F8B546025CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserName" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>sdncbiahi</t>
   </si>
   <si>
-    <t>rypabEz</t>
-  </si>
-  <si>
-    <t>mngr357958</t>
+    <t>mngr365881</t>
+  </si>
+  <si>
+    <t>jYmebUz</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,10 +388,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -404,10 +404,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
